--- a/BubbleTrackData.xlsx
+++ b/BubbleTrackData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opdada01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opdada01\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADB2CDD-5446-4CDB-8F43-BCA9A6276ED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD598DF-1EB2-4C81-AB4C-61D21A87018A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" xr2:uid="{6F0CD48B-2F8A-46BE-9EF0-089770055B17}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{6F0CD48B-2F8A-46BE-9EF0-089770055B17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,13 +428,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.245</v>
       </c>
       <c r="D2">
         <v>67</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -445,13 +445,13 @@
         <v>5.5</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
         <v>82</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>1.8819999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -462,13 +462,13 @@
         <v>5.8</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D4">
         <v>92</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>1.577</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -479,13 +479,13 @@
         <v>6.5</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="D5">
         <v>106</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.333</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
         <v>116</v>
@@ -513,13 +513,13 @@
         <v>7.3</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D7">
         <v>124</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2.202</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -530,13 +530,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0.215</v>
       </c>
       <c r="D8">
         <v>140</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>1.333</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -547,13 +547,13 @@
         <v>12.2</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>0.245</v>
       </c>
       <c r="D9">
         <v>153</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>1.8819999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/BubbleTrackData.xlsx
+++ b/BubbleTrackData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opdada01\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opdada01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD598DF-1EB2-4C81-AB4C-61D21A87018A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{202B490D-857F-4422-9914-8A041140061F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{6F0CD48B-2F8A-46BE-9EF0-089770055B17}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>116</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/BubbleTrackData.xlsx
+++ b/BubbleTrackData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opdada01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opdada01\Desktop\ggg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{202B490D-857F-4422-9914-8A041140061F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80BB153-60EB-499D-B76F-A2E95D394FC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{6F0CD48B-2F8A-46BE-9EF0-089770055B17}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Radius</t>
   </si>
@@ -41,15 +41,25 @@
   <si>
     <t>Point</t>
   </si>
+  <si>
+    <t>8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,8 +85,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D54375-3F87-4A71-9D86-CC7783A240AC}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="E9" sqref="A2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,158 +417,167 @@
     <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C2">
-        <v>0.245</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D2" s="2">
         <v>67</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="D3" s="2">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.6509999999999998</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>92</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>106</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.5219999999999998</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="D6" s="2">
+        <v>116</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>124</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.774</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>5.5</v>
-      </c>
-      <c r="C3">
-        <v>0.2</v>
-      </c>
-      <c r="D3">
-        <v>82</v>
-      </c>
-      <c r="E3">
-        <v>1.8819999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>5.8</v>
-      </c>
-      <c r="C4">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="D4">
-        <v>92</v>
-      </c>
-      <c r="E4">
-        <v>1.577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>6.5</v>
-      </c>
-      <c r="C5">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="D5">
-        <v>106</v>
-      </c>
-      <c r="E5">
-        <v>1.333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>0.2</v>
-      </c>
-      <c r="D6">
-        <v>116</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>7.3</v>
-      </c>
-      <c r="C7">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="D7">
-        <v>124</v>
-      </c>
-      <c r="E7">
-        <v>2.202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C8">
-        <v>0.215</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="2">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="D8" s="2">
         <v>140</v>
       </c>
-      <c r="E8">
-        <v>1.333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="E8" s="2">
+        <v>2.5219999999999998</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>12.2</v>
       </c>
-      <c r="C9">
-        <v>0.245</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="2">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D9" s="2">
         <v>153</v>
       </c>
-      <c r="E9">
-        <v>1.8819999999999999</v>
-      </c>
+      <c r="E9" s="2">
+        <v>2.6509999999999998</v>
+      </c>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
